--- a/src/test/resources/TestData/TestExcel.xlsx
+++ b/src/test/resources/TestData/TestExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t xml:space="preserve">SI.No.</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t xml:space="preserve">ORG_04</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,19 +228,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -355,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,14 +390,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,22 +458,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.13"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="9.13" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="12.1" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="24.17" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="18.0" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="19.04" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="15.66" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="19.77" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="19.33" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="18.0" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="9.13" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="13.66" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="12.33" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="10.12" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="12.44" collapsed="false" outlineLevel="0"/>
+    <col min="16" max="1025" customWidth="true" hidden="false" style="1" width="9.13" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -705,7 +690,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
@@ -713,15 +698,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="13.55" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.1" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="18.33" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="26.16" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="30.43" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.39" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="20.7" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="18.89" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="1025" customWidth="true" hidden="false" style="0" width="8.67" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,6 +734,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
+      <c r="I2" t="s" s="0">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -766,6 +754,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="I3" t="s" s="0">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -846,10 +837,10 @@
       <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -875,7 +866,7 @@
       <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -907,7 +898,7 @@
       <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -935,7 +926,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="14"/>
+      <c r="D17" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -964,30 +955,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.13"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="10.45" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.1" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="18.33" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="18.0" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="12.89" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="15.66" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="17.33" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="18.0" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="12.89" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="14.55" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="1025" customWidth="true" hidden="false" style="1" width="9.13" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1025,21 +1016,21 @@
       <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="15" t="n">
         <v>1200</v>
       </c>
       <c r="E6" s="5" t="n">
@@ -1048,7 +1039,7 @@
       <c r="F6" s="5" t="n">
         <v>9876543210</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1069,27 +1060,27 @@
       <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1113,7 +1104,7 @@
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1122,21 +1113,21 @@
       <c r="I11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="15" t="n">
         <v>1200</v>
       </c>
       <c r="E12" s="5" t="n">
@@ -1145,21 +1136,21 @@
       <c r="F12" s="5" t="n">
         <v>9876543210</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="22"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/TestData/TestExcel.xlsx
+++ b/src/test/resources/TestData/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
   <si>
     <t xml:space="preserve">TestCase_ID</t>
   </si>
@@ -147,18 +147,12 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test_Contacts_001</t>
   </si>
   <si>
     <t xml:space="preserve">sumitofficial021995@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Organization</t>
   </si>
   <si>
@@ -189,7 +183,7 @@
     <t xml:space="preserve">Aman11@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">18-02-1995</t>
+    <t xml:space="preserve">1995-04-18</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date</t>
@@ -210,13 +204,13 @@
     <t xml:space="preserve">ritik11r@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">06-02-1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-04-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-04-2025</t>
+    <t xml:space="preserve">1995-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CurrentDate&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;30Days+&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">OrgName</t>
@@ -265,11 +259,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -298,13 +293,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -404,7 +392,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,15 +405,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,7 +437,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,15 +445,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,7 +490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.17"/>
@@ -907,10 +899,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -918,7 +910,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="36.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.89"/>
@@ -953,13 +945,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="M2" s="0" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>26</v>
@@ -971,13 +960,10 @@
         <v>9818425197</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
@@ -1005,12 +991,12 @@
         <v>40</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
@@ -1022,10 +1008,10 @@
         <v>9818425197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1051,7 +1037,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -1063,7 +1049,7 @@
         <v>9845641223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>35</v>
@@ -1098,30 +1084,30 @@
         <v>30</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>7896321456</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>55</v>
+      <c r="G12" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1145,42 +1131,42 @@
         <v>30</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>8845623178</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1202,7 +1188,7 @@
     <hyperlink ref="E6" r:id="rId2" display="sumitofficial021995@gmail.com"/>
     <hyperlink ref="E9" r:id="rId3" display="amit02@gmail.com"/>
     <hyperlink ref="E12" r:id="rId4" display="Aman11@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId5" display="ritik11r@gmail"/>
+    <hyperlink ref="E15" r:id="rId5" display="ritik11r@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1221,8 +1207,8 @@
   </sheetPr>
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1244,27 +1230,27 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>7896471200</v>
       </c>
     </row>
@@ -1275,20 +1261,20 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>33</v>
@@ -1299,22 +1285,22 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="17" t="n">
         <v>7899541236</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>38</v>
@@ -1339,54 +1325,54 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="17" t="n">
         <v>9985741236</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
